--- a/Raj Chudasama/2022-12-20/Home2 Suites by Hilton Fort Worth Northlake/arrivalllandscape_letter.xlsx
+++ b/Raj Chudasama/2022-12-20/Home2 Suites by Hilton Fort Worth Northlake/arrivalllandscape_letter.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="57">
   <si>
     <t>Guest Name</t>
   </si>
@@ -34,154 +34,157 @@
     <t>Arrival Date</t>
   </si>
   <si>
-    <t>Depart Date</t>
-  </si>
-  <si>
     <t>Room Type</t>
   </si>
   <si>
-    <t>BRADFORD/ANDERSON</t>
-  </si>
-  <si>
-    <t>BROWN/ANDREW</t>
-  </si>
-  <si>
-    <t>DAVISON/JASMINE</t>
-  </si>
-  <si>
-    <t>GORDON/GARY</t>
-  </si>
-  <si>
-    <t>Green/Louis</t>
+    <t xml:space="preserve">BRADFORD/ANDERSON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROWN/ANDREW </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAVISON/JASMINE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GORDON/GARY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green/Louis </t>
   </si>
   <si>
     <t>HARVEY/SAMARA</t>
   </si>
   <si>
-    <t>JACKSON/DANELLE</t>
-  </si>
-  <si>
-    <t>JENKINS JR/ALEX WAYNE</t>
+    <t xml:space="preserve">JACKSON/DANELLE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JENKINS JR/ALEX WAYNE </t>
   </si>
   <si>
     <t>LOFTUS/NICHOLAS L</t>
   </si>
   <si>
-    <t>MUMM/DANIEL</t>
-  </si>
-  <si>
-    <t>RAINEY/CHARLES</t>
-  </si>
-  <si>
-    <t>Ramos/Benjamin Richard</t>
+    <t xml:space="preserve">MAC ETCHU/KERRY-HOOD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUMM/DANIEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAINEY/CHARLES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramos/Benjamin Richard </t>
   </si>
   <si>
     <t>Sanchez/Alejandra</t>
   </si>
   <si>
-    <t>THOMPSON/BENJAMIN</t>
-  </si>
-  <si>
-    <t>TRUE/RICK</t>
-  </si>
-  <si>
-    <t>WILLIAMS/VINCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> S </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> G </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> D </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> B </t>
-  </si>
-  <si>
-    <t>UNITED PARCEL SERVIC</t>
-  </si>
-  <si>
-    <t>OMNI AIR</t>
-  </si>
-  <si>
-    <t>GOVERNMENT</t>
+    <t xml:space="preserve">THOMPSON/BENJAMIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE/RICK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WILLIAMS/VINCE </t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNITED PARCEL SERVIC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMNI AIR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRICELINE MERCHANT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEDROOMS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCD TRAVEL SME </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXPEDIA </t>
   </si>
   <si>
     <t>$92.65</t>
   </si>
   <si>
+    <t>$104.00</t>
+  </si>
+  <si>
     <t>$102.00</t>
   </si>
   <si>
+    <t>$109.00</t>
+  </si>
+  <si>
+    <t>$104.13</t>
+  </si>
+  <si>
+    <t>$98.00</t>
+  </si>
+  <si>
+    <t>$0.00</t>
+  </si>
+  <si>
+    <t>$101.37</t>
+  </si>
+  <si>
     <t>$54.50</t>
   </si>
   <si>
-    <t>SERVIC</t>
-  </si>
-  <si>
-    <t>RATE</t>
-  </si>
-  <si>
-    <t>AIR</t>
-  </si>
-  <si>
-    <t>1232212850</t>
+    <t>$110.67</t>
   </si>
   <si>
     <t>L-UPE</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>726612468</t>
+    <t>LV0</t>
   </si>
   <si>
     <t>L-P97</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>DISCOUNTS</t>
-  </si>
-  <si>
-    <t>598827498</t>
+    <t>L-3PF</t>
+  </si>
+  <si>
+    <t>L-GR1</t>
+  </si>
+  <si>
+    <t>L-SRR</t>
+  </si>
+  <si>
+    <t>L-S8B</t>
   </si>
   <si>
     <t>L-F5F</t>
   </si>
   <si>
-    <t>12/20/2022</t>
-  </si>
-  <si>
-    <t>COR</t>
-  </si>
-  <si>
-    <t>BEST</t>
-  </si>
-  <si>
-    <t>LOCAL</t>
-  </si>
-  <si>
-    <t>931</t>
+    <t>L-3XR</t>
+  </si>
+  <si>
+    <t>12/22/2022</t>
+  </si>
+  <si>
+    <t>NQJ</t>
   </si>
   <si>
     <t>NKJ</t>
   </si>
   <si>
-    <t>OTHER</t>
-  </si>
-  <si>
-    <t>821</t>
-  </si>
-  <si>
-    <t>NQJ</t>
-  </si>
-  <si>
-    <t>520</t>
+    <t>86254542</t>
   </si>
 </sst>
 </file>
@@ -539,103 +542,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>28</v>
       </c>
       <c r="E2" t="s">
         <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
+      <c r="A3" s="1">
+        <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
       <c r="E3" t="s">
         <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>10</v>
+      <c r="A4" s="1">
+        <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>53</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>11</v>
+      <c r="A5" s="1">
+        <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>29</v>
       </c>
       <c r="E5" t="s">
@@ -644,52 +665,70 @@
       <c r="F5" t="s">
         <v>46</v>
       </c>
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>12</v>
+      <c r="A6" s="1">
+        <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>13</v>
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>53</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>14</v>
+      <c r="A8" s="1">
+        <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>29</v>
       </c>
       <c r="E8" t="s">
@@ -698,18 +737,24 @@
       <c r="F8" t="s">
         <v>46</v>
       </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>15</v>
+      <c r="A9" s="1">
+        <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>29</v>
       </c>
       <c r="E9" t="s">
@@ -718,56 +763,68 @@
       <c r="F9" t="s">
         <v>46</v>
       </c>
+      <c r="G9" t="s">
+        <v>53</v>
+      </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>16</v>
+      <c r="A10" s="1">
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
       </c>
       <c r="E10" t="s">
         <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>17</v>
+      <c r="A11" s="1">
+        <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="E11" t="s">
         <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>18</v>
+      <c r="A12" s="1">
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>32</v>
@@ -776,98 +833,163 @@
         <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>19</v>
+      <c r="A13" s="1">
+        <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
         <v>46</v>
       </c>
+      <c r="G13" t="s">
+        <v>53</v>
+      </c>
       <c r="H13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
         <v>43</v>
       </c>
-      <c r="F14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D16" t="s">
         <v>29</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>36</v>
-      </c>
-      <c r="F15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
       </c>
       <c r="F16" t="s">
         <v>46</v>
       </c>
+      <c r="G16" t="s">
+        <v>53</v>
+      </c>
       <c r="H16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>23</v>
+      <c r="A17" s="1">
+        <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
         <v>46</v>
       </c>
+      <c r="G17" t="s">
+        <v>53</v>
+      </c>
       <c r="H17" t="s">
-        <v>51</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Raj Chudasama/2022-12-20/Home2 Suites by Hilton Fort Worth Northlake/arrivalllandscape_letter.xlsx
+++ b/Raj Chudasama/2022-12-20/Home2 Suites by Hilton Fort Worth Northlake/arrivalllandscape_letter.xlsx
@@ -542,453 +542,402 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C17" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D17" t="s">
         <v>36</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E17" t="s">
         <v>46</v>
       </c>
-      <c r="G5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D18" t="s">
         <v>36</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E18" t="s">
         <v>46</v>
       </c>
-      <c r="G8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" t="s">
-        <v>36</v>
-      </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" t="s">
         <v>55</v>
       </c>
     </row>
